--- a/owasp and ptes (complicane and tools)/ISO27k1__and_controls.xlsx
+++ b/owasp and ptes (complicane and tools)/ISO27k1__and_controls.xlsx
@@ -22,10 +22,10 @@
     <definedName name="__xlnm.Print_Titles" localSheetId="1">'Annex A controls'!$A$2:$IP$2</definedName>
     <definedName name="Applicability">Metrics!$B$14:$B$16</definedName>
     <definedName name="CMM">#REF!</definedName>
-    <definedName name="ControlTotal">'Annex A controls'!$D$170</definedName>
+    <definedName name="ControlTotal">'Annex A controls'!$D$185</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">'Mandatory ISMS requirements'!$B$1:$E$58</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles" localSheetId="1">'Annex A controls'!$A$2:$IP$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Annex A controls'!$B$1:$D$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Annex A controls'!$B$1:$D$185</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Mandatory ISMS requirements'!$B$1:$E$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Metrics!$B$2:$O$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Annex A controls'!$1:$2</definedName>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="437">
   <si>
     <t>Status</t>
   </si>
@@ -2007,6 +2007,51 @@
   </si>
   <si>
     <t>The policy depends upon the organization and every penetration tester should come with the rules of engagement and disclosure agreements so it does not apply on the OWASP but a basic pre-engagement step for evey pen-tester. However, if considering the OWASP checklist documentation it can be seen there are number of experiments fulfilling the criteria for access controls.</t>
+  </si>
+  <si>
+    <t>The secret authentication is defined not directly but testing in terms of session management, cache checks, weak credentials etc. also the testing of authentication indirectly fulfills the secret authentication.</t>
+  </si>
+  <si>
+    <t>This section is managed very carefully by OWASP, in the OTG checklist full control is managed in terms of testing this domain.</t>
+  </si>
+  <si>
+    <t>The access controls alongside broken authentication is very well managed in the OWSAP, very well list of testing presented in the checklist along with the tools.</t>
+  </si>
+  <si>
+    <t>Specifically, key management is not mentioned in the scope of OWASP, however, considering cryptographic approach OWASP checks for encryption standards and also one of the main point of sensitive data exposures describes importance of data. Moreover, insecure deserialization also focusses on the this schema.</t>
+  </si>
+  <si>
+    <t>OWASP is a testing methodology specifically for web applications and it is about testing the applications based on web or cloud. So, it does not involve any channels to secure physical structure.</t>
+  </si>
+  <si>
+    <t>The OWASP in its sensitive data exposure and components with known vulnerabilites section address some of the issues to not use components or remove any components with known vulnerabilites.</t>
+  </si>
+  <si>
+    <t>The documentation is the initial phase for any pen-tester however OWASP also provides documentation standards including OTG and OTG checklist also other documentations officialy where change management is defined in terms of access controls and authorization part. However, capacity management is not applicable which is to be done between the organizations and therefore OWASP does not provide any support related to it.</t>
+  </si>
+  <si>
+    <t>This is the main thing which OWASP is known for so it basically provides all the guidelines in various way defined in OTG/ OTG checklist, which discusses various standards in accordance to protection against malware.</t>
+  </si>
+  <si>
+    <t>Backup is not directly defined but however OWASP in various ways targets to backup the files or make them encrypted to ensure condfidentiality and integrity.</t>
+  </si>
+  <si>
+    <t>OWASP provides in its top 10 section related to insufficient logging and monitoring and shows the importance to manage and protect logs in order to stay safe from an exploits.</t>
+  </si>
+  <si>
+    <t>The security and misconfiguration section of OWASP deals with the insecure or outdated patches which should be updated or removed and hence any installation depends on such configuration files.</t>
+  </si>
+  <si>
+    <t>The management of technical vulnerabilities and proper testing method alongside tools are discussed in the OWASP top 10. The access controls and authorization deals with the restriction part of the software installation.</t>
+  </si>
+  <si>
+    <t>The controls in access controls section of OWASP also authorization deals with the above stated auditing.</t>
+  </si>
+  <si>
+    <t>The controls along with testing are very well described in the OWASP, access controls and testing of several services on the network like webDav, FTP, backend DB server etc are defined by OWASP also in the OTG checklist. The netwrok segregation is defined as in-directly involving controls of access and services.</t>
+  </si>
+  <si>
+    <t>The transfer of information is addressed in terms of encryption and testing of information access, authorization and injection etc.</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -2608,6 +2653,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2623,7 +2849,7 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2931,15 +3157,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2949,8 +3173,93 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -10734,7 +11043,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.82456140350877194</c:v>
+                  <c:v>0.38596491228070173</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.1403508771929821E-2</c:v>
@@ -10743,19 +11052,19 @@
                   <c:v>2.6315789473684209E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>8.771929824561403E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6315789473684209E-2</c:v>
+                  <c:v>0.19298245614035087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.771929824561403E-3</c:v>
+                  <c:v>7.0175438596491224E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>5.2631578947368418E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7543859649122806E-2</c:v>
+                  <c:v>0.12280701754385964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11337,7 +11646,7 @@
   <dimension ref="A1:AF72"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E59" sqref="B1:E59"/>
     </sheetView>
   </sheetViews>
@@ -11352,12 +11661,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" s="32" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="2:32" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
@@ -15734,13 +16043,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IQ180"/>
+  <dimension ref="A1:IQ195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15755,11 +16064,11 @@
   <sheetData>
     <row r="1" spans="1:30" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="65"/>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="93" t="s">
         <v>417</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
     </row>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="64" t="s">
@@ -16251,34 +16560,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="53" t="s">
+    <row r="32" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="97" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:30" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="94" t="s">
+    <row r="33" spans="2:30" s="28" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="106" t="s">
         <v>416</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="105" t="s">
         <v>418</v>
       </c>
-      <c r="D33" s="93"/>
+      <c r="D33" s="101"/>
     </row>
     <row r="34" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="99" t="s">
         <v>273</v>
       </c>
-      <c r="D34" s="41"/>
+      <c r="D34" s="100"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
@@ -16328,25 +16637,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="53" t="s">
+    <row r="37" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="70" t="s">
+      <c r="C37" s="96" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:30" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="94" t="s">
+    <row r="38" spans="2:30" s="30" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="102" t="s">
         <v>416</v>
       </c>
-      <c r="C38" s="92" t="s">
+      <c r="C38" s="103" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="93"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="31"/>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
@@ -16375,13 +16684,13 @@
       <c r="AD38" s="31"/>
     </row>
     <row r="39" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="D39" s="41"/>
+      <c r="D39" s="100"/>
     </row>
     <row r="40" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="53" t="s">
@@ -16405,25 +16714,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="53" t="s">
+    <row r="42" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="70" t="s">
+      <c r="C42" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="97" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:30" s="30" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="94" t="s">
+    <row r="43" spans="2:30" s="30" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="106" t="s">
         <v>416</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="109" t="s">
         <v>420</v>
       </c>
-      <c r="D43" s="93"/>
+      <c r="D43" s="110"/>
       <c r="E43" s="31"/>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
@@ -16452,13 +16761,13 @@
       <c r="AD43" s="31"/>
     </row>
     <row r="44" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="107" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="108"/>
     </row>
     <row r="45" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="51" t="s">
@@ -16506,34 +16815,34 @@
       <c r="AC46" s="31"/>
       <c r="AD46" s="31"/>
     </row>
-    <row r="47" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="53" t="s">
+    <row r="47" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="70" t="s">
+      <c r="C47" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="97" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:30" s="28" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="94" t="s">
+    <row r="48" spans="2:30" s="28" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="106" t="s">
         <v>416</v>
       </c>
-      <c r="C48" s="92" t="s">
+      <c r="C48" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="D48" s="93"/>
+      <c r="D48" s="110"/>
     </row>
     <row r="49" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="69" t="s">
+      <c r="C49" s="99" t="s">
         <v>285</v>
       </c>
-      <c r="D49" s="41"/>
+      <c r="D49" s="100"/>
     </row>
     <row r="50" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="53" t="s">
@@ -16543,7 +16852,7 @@
         <v>287</v>
       </c>
       <c r="D50" s="42" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16554,7 +16863,7 @@
         <v>288</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16565,7 +16874,7 @@
         <v>289</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16576,7 +16885,7 @@
         <v>290</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
@@ -16613,18 +16922,18 @@
         <v>291</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="C55" s="70" t="s">
+      <c r="C55" s="96" t="s">
         <v>292</v>
       </c>
-      <c r="D55" s="42" t="s">
-        <v>82</v>
+      <c r="D55" s="97" t="s">
+        <v>29</v>
       </c>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
@@ -16653,77 +16962,73 @@
       <c r="AC55" s="31"/>
       <c r="AD55" s="31"/>
     </row>
-    <row r="56" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="51" t="s">
+    <row r="56" spans="2:30" s="28" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C56" s="113" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" s="110"/>
+    </row>
+    <row r="57" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C57" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="41"/>
-    </row>
-    <row r="57" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="53" t="s">
+      <c r="D57" s="100"/>
+    </row>
+    <row r="58" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="70" t="s">
+      <c r="C58" s="70" t="s">
         <v>294</v>
       </c>
-      <c r="D57" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="51" t="s">
+      <c r="D58" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="89" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="91" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" s="92"/>
+    </row>
+    <row r="60" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C60" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="D58" s="41"/>
-    </row>
-    <row r="59" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="53" t="s">
-        <v>159</v>
-      </c>
-      <c r="C59" s="70" t="s">
-        <v>296</v>
-      </c>
-      <c r="D59" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C60" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="D60" s="41"/>
     </row>
     <row r="61" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="53" t="s">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
@@ -16754,43 +17059,45 @@
     </row>
     <row r="63" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C65" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C64" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="69" t="s">
-        <v>302</v>
-      </c>
-      <c r="D65" s="41"/>
-    </row>
-    <row r="66" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="53" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="70" t="s">
-        <v>303</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="D65" s="97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C66" s="113" t="s">
+        <v>424</v>
+      </c>
+      <c r="D66" s="110"/>
       <c r="E66" s="31"/>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
@@ -16818,78 +17125,72 @@
       <c r="AC66" s="31"/>
       <c r="AD66" s="31"/>
     </row>
-    <row r="67" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="53" t="s">
+    <row r="67" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="107" t="s">
+        <v>301</v>
+      </c>
+      <c r="D67" s="108"/>
+    </row>
+    <row r="68" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="41"/>
+    </row>
+    <row r="69" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="70" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C70" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="D67" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="49" t="s">
+      <c r="D70" s="97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="113" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" s="110"/>
+    </row>
+    <row r="72" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="68" t="s">
+      <c r="C72" s="107" t="s">
         <v>305</v>
       </c>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="51" t="s">
+      <c r="D72" s="108"/>
+    </row>
+    <row r="73" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C73" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="D69" s="41"/>
-    </row>
-    <row r="70" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="70" t="s">
-        <v>308</v>
-      </c>
-      <c r="D71" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="53" t="s">
-        <v>413</v>
-      </c>
-      <c r="C73" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="D73" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="D73" s="41"/>
       <c r="E73" s="31"/>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
@@ -16919,121 +17220,119 @@
     </row>
     <row r="74" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D75" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="D76" s="41"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="53" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="53" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>316</v>
-      </c>
-      <c r="D79" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="D81" s="42" t="s">
-        <v>82</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D79" s="97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" s="28" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="113" t="s">
+        <v>426</v>
+      </c>
+      <c r="D80" s="110"/>
+    </row>
+    <row r="81" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C81" s="99" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="100"/>
     </row>
     <row r="82" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C82" s="70" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D82" s="42" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C84" s="70" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D84" s="42" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E84" s="31"/>
       <c r="F84" s="31"/>
@@ -17064,53 +17363,57 @@
     </row>
     <row r="85" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="53" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="86" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="41"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="70" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="53" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C88" s="70" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D88" s="42" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="53" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E89" s="31"/>
       <c r="F89" s="31"/>
@@ -17139,27 +17442,25 @@
       <c r="AC89" s="31"/>
       <c r="AD89" s="31"/>
     </row>
-    <row r="90" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="53" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C90" s="70" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D90" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="D91" s="42" t="s">
-        <v>82</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30" s="30" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" s="114" t="s">
+        <v>427</v>
+      </c>
+      <c r="D91" s="115"/>
       <c r="E91" s="31"/>
       <c r="F91" s="31"/>
       <c r="G91" s="31"/>
@@ -17187,25 +17488,23 @@
       <c r="AC91" s="31"/>
       <c r="AD91" s="31"/>
     </row>
-    <row r="92" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C92" s="69" t="s">
-        <v>329</v>
-      </c>
-      <c r="D92" s="41"/>
+    <row r="92" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="68" t="s">
+        <v>323</v>
+      </c>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C93" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="D93" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="B93" s="51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" s="41"/>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
       <c r="G93" s="31"/>
@@ -17233,56 +17532,58 @@
       <c r="AC93" s="31"/>
       <c r="AD93" s="31"/>
     </row>
-    <row r="94" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C94" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="D94" s="41"/>
+    <row r="94" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="95" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="53" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D95" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="69" t="s">
-        <v>333</v>
-      </c>
-      <c r="D96" s="41"/>
-    </row>
-    <row r="97" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="53" t="s">
-        <v>414</v>
+        <v>189</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="53" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>82</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="2:30" s="30" customFormat="1" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C98" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="D98" s="115"/>
       <c r="E98" s="31"/>
       <c r="F98" s="31"/>
       <c r="G98" s="31"/>
@@ -17310,26 +17611,24 @@
       <c r="AC98" s="31"/>
       <c r="AD98" s="31"/>
     </row>
-    <row r="99" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C99" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="53" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
@@ -17358,34 +17657,34 @@
       <c r="AC100" s="31"/>
       <c r="AD100" s="31"/>
     </row>
-    <row r="101" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="D101" s="41"/>
-    </row>
-    <row r="102" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C102" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="D102" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C103" s="69" t="s">
-        <v>340</v>
-      </c>
-      <c r="D103" s="41"/>
+    <row r="101" spans="2:30" s="28" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" s="114" t="s">
+        <v>429</v>
+      </c>
+      <c r="D101" s="115"/>
+    </row>
+    <row r="102" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="D102" s="41"/>
+    </row>
+    <row r="103" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
       <c r="G103" s="31"/>
@@ -17413,36 +17712,34 @@
       <c r="AC103" s="31"/>
       <c r="AD103" s="31"/>
     </row>
-    <row r="104" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="70" t="s">
-        <v>341</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>82</v>
-      </c>
+    <row r="104" spans="2:30" s="28" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C104" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104" s="115"/>
     </row>
     <row r="105" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C105" s="70" t="s">
-        <v>342</v>
-      </c>
-      <c r="D105" s="42" t="s">
-        <v>82</v>
-      </c>
+      <c r="B105" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="C105" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="41"/>
     </row>
     <row r="106" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="C106" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="D106" s="41"/>
+      <c r="B106" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="C106" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="42" t="s">
+        <v>29</v>
+      </c>
       <c r="E106" s="31"/>
       <c r="F106" s="31"/>
       <c r="G106" s="31"/>
@@ -17472,43 +17769,45 @@
     </row>
     <row r="107" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="53" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C107" s="70" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D107" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="C108" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="C109" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="D109" s="41"/>
-    </row>
-    <row r="110" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="70" t="s">
-        <v>347</v>
-      </c>
-      <c r="D110" s="42" t="s">
-        <v>82</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C108" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="C109" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="2:30" s="30" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C110" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="D110" s="115"/>
       <c r="E110" s="31"/>
       <c r="F110" s="31"/>
       <c r="G110" s="31"/>
@@ -17536,68 +17835,64 @@
       <c r="AC110" s="31"/>
       <c r="AD110" s="31"/>
     </row>
-    <row r="111" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="D111" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="69" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="53" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D112" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C113" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="D113" s="41"/>
-    </row>
-    <row r="114" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C114" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="D114" s="42" t="s">
-        <v>82</v>
-      </c>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30" s="28" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C113" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="D113" s="115"/>
+    </row>
+    <row r="114" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="D114" s="41"/>
     </row>
     <row r="115" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="53" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C115" s="70" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D115" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="53" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D116" s="42" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
@@ -17626,45 +17921,43 @@
       <c r="AC116" s="31"/>
       <c r="AD116" s="31"/>
     </row>
-    <row r="117" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C117" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="D117" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="C118" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="D118" s="11"/>
-    </row>
-    <row r="119" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="C119" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D119" s="41"/>
-    </row>
-    <row r="120" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="C120" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="D120" s="42" t="s">
-        <v>82</v>
-      </c>
+    <row r="117" spans="2:30" s="28" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="114" t="s">
+        <v>433</v>
+      </c>
+      <c r="D117" s="115"/>
+    </row>
+    <row r="118" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="C118" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" s="41"/>
+    </row>
+    <row r="119" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D119" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" s="30" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C120" s="114" t="s">
+        <v>434</v>
+      </c>
+      <c r="D120" s="115"/>
       <c r="E120" s="31"/>
       <c r="F120" s="31"/>
       <c r="G120" s="31"/>
@@ -17692,112 +17985,106 @@
       <c r="AC120" s="31"/>
       <c r="AD120" s="31"/>
     </row>
-    <row r="121" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C121" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="D121" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C122" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="D122" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="123" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="51" t="s">
-        <v>218</v>
-      </c>
-      <c r="C123" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="D123" s="41"/>
+    <row r="121" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="11"/>
+    </row>
+    <row r="122" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="D122" s="41"/>
+    </row>
+    <row r="123" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C123" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="D123" s="42" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="124" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="53" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="125" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="53" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D125" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="126" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="C126" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="D126" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="127" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="D127" s="42" t="s">
-        <v>82</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30" s="28" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" s="114" t="s">
+        <v>435</v>
+      </c>
+      <c r="D126" s="115"/>
+    </row>
+    <row r="127" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C127" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="D127" s="41"/>
     </row>
     <row r="128" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="53" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C128" s="70" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="53" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C129" s="70" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="53" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C130" s="70" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="E130" s="31"/>
       <c r="F130" s="31"/>
@@ -17826,36 +18113,34 @@
       <c r="AC130" s="31"/>
       <c r="AD130" s="31"/>
     </row>
-    <row r="131" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="53" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="D131" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="132" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="C132" s="70" t="s">
-        <v>369</v>
-      </c>
-      <c r="D132" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="133" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="D133" s="41"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="132" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="112" t="s">
+        <v>416</v>
+      </c>
+      <c r="C132" s="114" t="s">
+        <v>436</v>
+      </c>
+      <c r="D132" s="115"/>
+    </row>
+    <row r="133" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C133" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="D133" s="11"/>
       <c r="E133" s="31"/>
       <c r="F133" s="31"/>
       <c r="G133" s="31"/>
@@ -17883,41 +18168,43 @@
       <c r="AC133" s="31"/>
       <c r="AD133" s="31"/>
     </row>
-    <row r="134" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="C134" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="D134" s="42" t="s">
+    <row r="134" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D134" s="41"/>
+    </row>
+    <row r="135" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C135" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="D135" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="135" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="C135" s="68" t="s">
-        <v>372</v>
-      </c>
-      <c r="D135" s="11"/>
-    </row>
-    <row r="136" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="C136" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="D136" s="41"/>
+    <row r="136" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="D136" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="137" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="53" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C137" s="70" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="D137" s="42" t="s">
         <v>82</v>
@@ -17949,43 +18236,43 @@
       <c r="AC137" s="31"/>
       <c r="AD137" s="31"/>
     </row>
-    <row r="138" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="53" t="s">
-        <v>231</v>
-      </c>
-      <c r="C138" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="D138" s="42" t="s">
-        <v>82</v>
-      </c>
+    <row r="138" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="C138" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="D138" s="41"/>
     </row>
     <row r="139" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="53" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C139" s="70" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="D139" s="42" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="140" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C140" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="D140" s="41"/>
+      <c r="B140" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="C140" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="D140" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="141" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="53" t="s">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="C141" s="70" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D141" s="42" t="s">
         <v>82</v>
@@ -18019,39 +18306,43 @@
     </row>
     <row r="142" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="53" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C142" s="70" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D142" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="143" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="49" t="s">
-        <v>236</v>
-      </c>
-      <c r="C143" s="68" t="s">
-        <v>380</v>
-      </c>
-      <c r="D143" s="11"/>
-    </row>
-    <row r="144" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C144" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="D144" s="41"/>
+    <row r="143" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="D143" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="144" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B144" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="D144" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="145" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="53" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C145" s="70" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D145" s="42" t="s">
         <v>82</v>
@@ -18059,10 +18350,10 @@
     </row>
     <row r="146" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="53" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C146" s="70" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D146" s="42" t="s">
         <v>82</v>
@@ -18070,47 +18361,43 @@
     </row>
     <row r="147" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="53" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="C147" s="70" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D147" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="148" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C148" s="70" t="s">
-        <v>385</v>
-      </c>
-      <c r="D148" s="42" t="s">
-        <v>82</v>
-      </c>
+    <row r="148" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="D148" s="41"/>
     </row>
     <row r="149" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="53" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C149" s="70" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D149" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="150" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="53" t="s">
-        <v>243</v>
-      </c>
-      <c r="C150" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="D150" s="42" t="s">
-        <v>82</v>
-      </c>
+    <row r="150" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C150" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="D150" s="11"/>
       <c r="E150" s="31"/>
       <c r="F150" s="31"/>
       <c r="G150" s="31"/>
@@ -18138,41 +18425,43 @@
       <c r="AC150" s="31"/>
       <c r="AD150" s="31"/>
     </row>
-    <row r="151" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C151" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="D151" s="42" t="s">
+    <row r="151" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C151" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="D151" s="41"/>
+    </row>
+    <row r="152" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C152" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="D152" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="152" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="49" t="s">
-        <v>245</v>
-      </c>
-      <c r="C152" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="D152" s="11"/>
-    </row>
-    <row r="153" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="C153" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="D153" s="41"/>
+    <row r="153" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C153" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D153" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="154" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="53" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C154" s="70" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D154" s="42" t="s">
         <v>82</v>
@@ -18204,36 +18493,36 @@
       <c r="AC154" s="31"/>
       <c r="AD154" s="31"/>
     </row>
-    <row r="155" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="C155" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="D155" s="42" t="s">
-        <v>82</v>
-      </c>
+    <row r="155" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="C155" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="D155" s="41"/>
     </row>
     <row r="156" spans="2:30" s="12" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="53" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C156" s="70" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D156" s="42" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="157" spans="2:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C157" s="69" t="s">
-        <v>393</v>
-      </c>
-      <c r="D157" s="41"/>
+      <c r="B157" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C157" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D157" s="42" t="s">
+        <v>82</v>
+      </c>
       <c r="E157" s="31"/>
       <c r="F157" s="31"/>
       <c r="G157" s="31"/>
@@ -18261,41 +18550,41 @@
       <c r="AC157" s="31"/>
       <c r="AD157" s="31"/>
     </row>
-    <row r="158" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="C158" s="70" t="s">
-        <v>394</v>
-      </c>
-      <c r="D158" s="42" t="s">
+    <row r="158" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C158" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C159" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D159" s="41"/>
+    </row>
+    <row r="160" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="D160" s="42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="159" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="C159" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="D159" s="11"/>
-    </row>
-    <row r="160" spans="2:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C160" s="69" t="s">
-        <v>396</v>
-      </c>
-      <c r="D160" s="41"/>
     </row>
     <row r="161" spans="1:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="53" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C161" s="70" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D161" s="42" t="s">
         <v>82</v>
@@ -18303,10 +18592,10 @@
     </row>
     <row r="162" spans="1:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="53" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C162" s="70" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D162" s="42" t="s">
         <v>82</v>
@@ -18314,10 +18603,10 @@
     </row>
     <row r="163" spans="1:30" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="53" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C163" s="70" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D163" s="42" t="s">
         <v>82</v>
@@ -18351,10 +18640,10 @@
     </row>
     <row r="164" spans="1:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="53" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C164" s="70" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D164" s="42" t="s">
         <v>82</v>
@@ -18362,129 +18651,299 @@
     </row>
     <row r="165" spans="1:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="53" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C165" s="70" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D165" s="42" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C166" s="69" t="s">
-        <v>402</v>
-      </c>
-      <c r="D166" s="41"/>
-    </row>
-    <row r="167" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C166" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="D166" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A167" s="5"/>
-      <c r="B167" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="C167" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="D167" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="168" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B167" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="D167" s="11"/>
+    </row>
+    <row r="168" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-      <c r="B168" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="C168" s="70" t="s">
-        <v>404</v>
-      </c>
-      <c r="D168" s="42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="169" spans="1:30" s="7" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C168" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" s="41"/>
+    </row>
+    <row r="169" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
-      <c r="B169" s="66" t="s">
-        <v>262</v>
-      </c>
-      <c r="C169" s="71" t="s">
-        <v>405</v>
-      </c>
-      <c r="D169" s="60" t="s">
+      <c r="B169" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="C169" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="D169" s="42" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="170" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="72"/>
-      <c r="D170" s="34">
-        <f>COUNTA(D3:D169)</f>
-        <v>114</v>
+      <c r="B170" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C170" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="D170" s="42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="73"/>
-      <c r="D171" s="8"/>
-    </row>
-    <row r="172" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B171" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C171" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="D171" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="73"/>
-      <c r="D172" s="8"/>
+      <c r="B172" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C172" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="D172" s="41"/>
     </row>
     <row r="173" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="73"/>
-      <c r="D173" s="8"/>
-    </row>
-    <row r="174" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B173" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C173" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="D173" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="73"/>
-      <c r="D174" s="8"/>
-    </row>
-    <row r="175" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B174" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C174" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="D174" s="11"/>
+    </row>
+    <row r="175" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="73"/>
-      <c r="D175" s="8"/>
+      <c r="B175" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C175" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="D175" s="41"/>
     </row>
     <row r="176" spans="1:30" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="73"/>
-      <c r="D176" s="8"/>
+      <c r="B176" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="C176" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="D176" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="177" spans="1:4" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="73"/>
-      <c r="D177" s="8"/>
+      <c r="B177" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="C177" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="D177" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B178" s="3"/>
-      <c r="C178" s="73"/>
-      <c r="D178" s="8"/>
+      <c r="B178" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="C178" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="D178" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B179" s="3"/>
-      <c r="C179" s="73"/>
-      <c r="D179" s="8"/>
+      <c r="B179" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C179" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="D179" s="42" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B180" s="3"/>
-      <c r="C180" s="73"/>
-      <c r="D180" s="8"/>
+      <c r="B180" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="C180" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B181" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C181" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="D181" s="41"/>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B182" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C182" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="D182" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B183" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="C183" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="C184" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="D184" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B185" s="63"/>
+      <c r="C185" s="72"/>
+      <c r="D185" s="34">
+        <f>COUNTA(D3:D184)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B186" s="3"/>
+      <c r="C186" s="73"/>
+      <c r="D186" s="8"/>
+    </row>
+    <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B187" s="3"/>
+      <c r="C187" s="73"/>
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B188" s="3"/>
+      <c r="C188" s="73"/>
+      <c r="D188" s="8"/>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B189" s="3"/>
+      <c r="C189" s="73"/>
+      <c r="D189" s="8"/>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B190" s="3"/>
+      <c r="C190" s="73"/>
+      <c r="D190" s="8"/>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B191" s="3"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="8"/>
+    </row>
+    <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B192" s="3"/>
+      <c r="C192" s="73"/>
+      <c r="D192" s="8"/>
+    </row>
+    <row r="193" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B193" s="3"/>
+      <c r="C193" s="73"/>
+      <c r="D193" s="8"/>
+    </row>
+    <row r="194" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B194" s="3"/>
+      <c r="C194" s="73"/>
+      <c r="D194" s="8"/>
+    </row>
+    <row r="195" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B195" s="3"/>
+      <c r="C195" s="73"/>
+      <c r="D195" s="8"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C33:D33"/>
@@ -18579,204 +19038,204 @@
       <formula>NOT(ISERROR(SEARCH("Nonexistent",D50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="containsText" dxfId="394" priority="284" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="393" priority="285" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D57)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D63">
+  <conditionalFormatting sqref="D61:D65">
     <cfRule type="containsText" dxfId="392" priority="273" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D61)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="391" priority="274" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D59)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D67">
+  <conditionalFormatting sqref="D69:D70">
     <cfRule type="containsText" dxfId="390" priority="262" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D69)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="389" priority="263" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D75">
+  <conditionalFormatting sqref="D74:D79">
     <cfRule type="containsText" dxfId="388" priority="251" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D74)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="387" priority="252" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D70)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D74)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D85">
+  <conditionalFormatting sqref="D82:D90">
     <cfRule type="containsText" dxfId="386" priority="240" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D82)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="385" priority="241" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D77)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88:D91">
+  <conditionalFormatting sqref="D94:D97">
     <cfRule type="containsText" dxfId="384" priority="229" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D88)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D94)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="383" priority="230" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D88)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="D100">
     <cfRule type="containsText" dxfId="382" priority="218" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D100)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="381" priority="219" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D93)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D100)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="D103">
     <cfRule type="containsText" dxfId="380" priority="207" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D103)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="379" priority="208" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D95)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D103)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D100">
+  <conditionalFormatting sqref="D106:D109">
     <cfRule type="containsText" dxfId="378" priority="196" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D106)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="377" priority="197" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D97)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D106)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
+  <conditionalFormatting sqref="D112">
     <cfRule type="containsText" dxfId="376" priority="185" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D102)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D112)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="375" priority="186" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D102)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D112)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
+  <conditionalFormatting sqref="D115">
     <cfRule type="containsText" dxfId="374" priority="174" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D115)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="373" priority="175" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D104)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D115)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
+  <conditionalFormatting sqref="D116">
     <cfRule type="containsText" dxfId="372" priority="163" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D105)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D116)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="371" priority="164" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D105)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D116)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
+  <conditionalFormatting sqref="D119">
     <cfRule type="containsText" dxfId="370" priority="152" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D107)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D119)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="369" priority="153" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D107)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D119)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D112">
+  <conditionalFormatting sqref="D123:D125">
     <cfRule type="containsText" dxfId="368" priority="141" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D110)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D123)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="367" priority="142" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D110)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D123)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114:D117">
+  <conditionalFormatting sqref="D128:D131">
     <cfRule type="containsText" dxfId="366" priority="130" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D114)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D128)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="365" priority="131" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D114)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D128)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120:D122">
+  <conditionalFormatting sqref="D135:D137">
     <cfRule type="containsText" dxfId="364" priority="119" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D120)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D135)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="363" priority="120" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D120)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D135)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D124:D132">
+  <conditionalFormatting sqref="D139:D147">
     <cfRule type="containsText" dxfId="362" priority="108" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D139)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="361" priority="109" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D124)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D139)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
+  <conditionalFormatting sqref="D149">
     <cfRule type="containsText" dxfId="360" priority="97" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D149)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="359" priority="98" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D134)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D149)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137:D139">
+  <conditionalFormatting sqref="D152:D154">
     <cfRule type="containsText" dxfId="358" priority="86" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D152)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="357" priority="87" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D137)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D152)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141:D142">
+  <conditionalFormatting sqref="D156:D157">
     <cfRule type="containsText" dxfId="356" priority="75" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D141)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D156)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="355" priority="76" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D141)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145:D151">
+  <conditionalFormatting sqref="D160:D166">
     <cfRule type="containsText" dxfId="354" priority="53" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D145)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D160)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="353" priority="54" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D145)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154:D156">
+  <conditionalFormatting sqref="D169:D171">
     <cfRule type="containsText" dxfId="352" priority="42" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D154)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D169)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="351" priority="43" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D154)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D169)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
+  <conditionalFormatting sqref="D173">
     <cfRule type="containsText" dxfId="350" priority="31" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D158)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D173)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="349" priority="32" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D158)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D173)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161:D165">
+  <conditionalFormatting sqref="D176:D180">
     <cfRule type="containsText" dxfId="348" priority="20" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D161)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D176)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="347" priority="21" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D161)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D176)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167:D169">
+  <conditionalFormatting sqref="D182:D184">
     <cfRule type="containsText" dxfId="346" priority="9" operator="containsText" text="Initial">
-      <formula>NOT(ISERROR(SEARCH("Initial",D167)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Initial",D182)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="345" priority="10" operator="containsText" text="Nonexistent">
-      <formula>NOT(ISERROR(SEARCH("Nonexistent",D167)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Nonexistent",D182)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
@@ -18834,129 +19293,129 @@
       <formula>_xludf.STYLE(VLOOKUP(D50,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57">
+  <conditionalFormatting sqref="D58">
     <cfRule type="expression" dxfId="333" priority="286" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D57,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D58,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D63">
+  <conditionalFormatting sqref="D61:D65">
     <cfRule type="expression" dxfId="332" priority="275" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D59,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D61,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D67">
+  <conditionalFormatting sqref="D69:D70">
     <cfRule type="expression" dxfId="331" priority="264" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D66,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D69,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D75">
+  <conditionalFormatting sqref="D74:D79">
     <cfRule type="expression" dxfId="330" priority="253" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D70,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D74,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D85">
+  <conditionalFormatting sqref="D82:D90">
     <cfRule type="expression" dxfId="329" priority="242" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D77,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D82,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88:D91">
+  <conditionalFormatting sqref="D94:D97">
     <cfRule type="expression" dxfId="328" priority="231" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D88,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D94,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D93">
+  <conditionalFormatting sqref="D100">
     <cfRule type="expression" dxfId="327" priority="220" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D93,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D100,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="D103">
     <cfRule type="expression" dxfId="326" priority="209" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D95,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D103,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D100">
+  <conditionalFormatting sqref="D106:D109">
     <cfRule type="expression" dxfId="325" priority="198" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D97,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D106,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
+  <conditionalFormatting sqref="D112">
     <cfRule type="expression" dxfId="324" priority="187" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D102,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D112,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D104">
+  <conditionalFormatting sqref="D115">
     <cfRule type="expression" dxfId="323" priority="176" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D104,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D115,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D105">
+  <conditionalFormatting sqref="D116">
     <cfRule type="expression" dxfId="322" priority="165" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D105,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D116,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
+  <conditionalFormatting sqref="D119">
     <cfRule type="expression" dxfId="321" priority="154" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D107,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D119,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110:D112">
+  <conditionalFormatting sqref="D123:D125">
     <cfRule type="expression" dxfId="320" priority="143" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D110,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D123,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D114:D117">
+  <conditionalFormatting sqref="D128:D131">
     <cfRule type="expression" dxfId="319" priority="132" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D114,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D128,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D120:D122">
+  <conditionalFormatting sqref="D135:D137">
     <cfRule type="expression" dxfId="318" priority="121" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D120,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D135,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D124:D132">
+  <conditionalFormatting sqref="D139:D147">
     <cfRule type="expression" dxfId="317" priority="110" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D124,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D139,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134">
+  <conditionalFormatting sqref="D149">
     <cfRule type="expression" dxfId="316" priority="99" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D134,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D149,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D137:D139">
+  <conditionalFormatting sqref="D152:D154">
     <cfRule type="expression" dxfId="315" priority="88" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D137,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D152,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D141:D142">
+  <conditionalFormatting sqref="D156:D157">
     <cfRule type="expression" dxfId="314" priority="77" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D141,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D156,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D145:D151">
+  <conditionalFormatting sqref="D160:D166">
     <cfRule type="expression" dxfId="313" priority="55" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D145,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D160,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D154:D156">
+  <conditionalFormatting sqref="D169:D171">
     <cfRule type="expression" dxfId="312" priority="44" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D154,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D169,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D158">
+  <conditionalFormatting sqref="D173">
     <cfRule type="expression" dxfId="311" priority="33" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D158,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D173,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D161:D165">
+  <conditionalFormatting sqref="D176:D180">
     <cfRule type="expression" dxfId="310" priority="22" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D161,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D176,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D167:D169">
+  <conditionalFormatting sqref="D182:D184">
     <cfRule type="expression" dxfId="309" priority="11" stopIfTrue="1">
-      <formula>_xludf.STYLE(VLOOKUP(D167,#REF!,2,0))</formula>
+      <formula>_xludf.STYLE(VLOOKUP(D182,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions gridLines="1"/>
@@ -20271,7 +20730,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="276" operator="equal" id="{59D139DA-E699-4E2B-9C5A-D7A8DF7C0565}">
@@ -20287,7 +20746,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D57</xm:sqref>
+          <xm:sqref>D58</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="266" operator="equal" id="{B709FD38-AF14-4CFD-8541-A5D082DA7C88}">
@@ -20381,7 +20840,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D59:D63</xm:sqref>
+          <xm:sqref>D61:D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="265" operator="equal" id="{147AFC6B-88BE-49C3-982E-ED99C4DB6131}">
@@ -20397,7 +20856,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D59:D63</xm:sqref>
+          <xm:sqref>D61:D65</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="255" operator="equal" id="{DD3BB1F0-702A-47CE-9EA8-C9BA55EED47C}">
@@ -20491,7 +20950,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D66:D67</xm:sqref>
+          <xm:sqref>D69:D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="254" operator="equal" id="{D69AABA3-BAD5-4541-B0A4-9685BC1E6D75}">
@@ -20507,7 +20966,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D66:D67</xm:sqref>
+          <xm:sqref>D69:D70</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="244" operator="equal" id="{9D727CF7-C5CB-450A-A9D8-C50B9FA1E28D}">
@@ -20601,7 +21060,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D70:D75</xm:sqref>
+          <xm:sqref>D74:D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="243" operator="equal" id="{F1141613-550E-41B0-A09C-3FF5556BF9D7}">
@@ -20617,7 +21076,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D70:D75</xm:sqref>
+          <xm:sqref>D74:D79</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="233" operator="equal" id="{2F5F4F36-18B0-480C-89F3-15F013AB940C}">
@@ -20711,7 +21170,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D77:D85</xm:sqref>
+          <xm:sqref>D82:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="232" operator="equal" id="{23780556-E312-441F-96AB-DCF0EBFFA19B}">
@@ -20727,7 +21186,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D77:D85</xm:sqref>
+          <xm:sqref>D82:D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="222" operator="equal" id="{ADC71FE2-AAC3-4F6D-94AB-81B79DEC7555}">
@@ -20821,7 +21280,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D88:D91</xm:sqref>
+          <xm:sqref>D94:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="221" operator="equal" id="{3D4C16D1-0006-47CF-96A5-DC4ADA2BD73B}">
@@ -20837,7 +21296,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D88:D91</xm:sqref>
+          <xm:sqref>D94:D97</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="211" operator="equal" id="{B6DA3EA6-E59D-4B99-84D7-0B877F334872}">
@@ -20931,7 +21390,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D93</xm:sqref>
+          <xm:sqref>D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="210" operator="equal" id="{204C25C8-E3FA-49C0-A8A8-882859B1A580}">
@@ -20947,7 +21406,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D93</xm:sqref>
+          <xm:sqref>D100</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="200" operator="equal" id="{E5574FA3-E363-493F-9DB0-23D0E9916938}">
@@ -21041,7 +21500,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D95</xm:sqref>
+          <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="199" operator="equal" id="{F8D2B872-1870-47B0-8BF7-A81636F1707D}">
@@ -21057,7 +21516,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D95</xm:sqref>
+          <xm:sqref>D103</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="189" operator="equal" id="{24963B75-F40B-4F99-B61F-6A3879E5FEA7}">
@@ -21151,7 +21610,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D97:D100</xm:sqref>
+          <xm:sqref>D106:D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="188" operator="equal" id="{399E4B3E-8E87-44F1-8362-919013F5327A}">
@@ -21167,7 +21626,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D97:D100</xm:sqref>
+          <xm:sqref>D106:D109</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="178" operator="equal" id="{C0C87E5E-239F-4842-9425-EC197F496B04}">
@@ -21261,7 +21720,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D102</xm:sqref>
+          <xm:sqref>D112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="177" operator="equal" id="{5C3E9A8B-54EC-4C67-A420-D0A9075DC2BD}">
@@ -21277,7 +21736,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D102</xm:sqref>
+          <xm:sqref>D112</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="167" operator="equal" id="{8AD467FF-BE0E-4501-BA31-D09B8389121A}">
@@ -21371,7 +21830,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D104</xm:sqref>
+          <xm:sqref>D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="166" operator="equal" id="{26E18948-4CCA-4E96-9BC1-CBBF51016F2A}">
@@ -21387,7 +21846,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D104</xm:sqref>
+          <xm:sqref>D115</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="156" operator="equal" id="{1F2461FC-5225-4515-82F6-EA1F57280FDB}">
@@ -21481,7 +21940,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D105</xm:sqref>
+          <xm:sqref>D116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="155" operator="equal" id="{1139A05F-D59B-4044-B1BA-827CC92C07F3}">
@@ -21497,7 +21956,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D105</xm:sqref>
+          <xm:sqref>D116</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="145" operator="equal" id="{AEA43A2B-2EDF-4171-BDAB-EDC54381197C}">
@@ -21591,7 +22050,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D107</xm:sqref>
+          <xm:sqref>D119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="144" operator="equal" id="{7573015A-6905-4D7D-8053-4047D668B66C}">
@@ -21607,7 +22066,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D107</xm:sqref>
+          <xm:sqref>D119</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="134" operator="equal" id="{9DCD30AB-6302-4BF0-BA4E-8E71C4B10CFC}">
@@ -21701,7 +22160,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D110:D112</xm:sqref>
+          <xm:sqref>D123:D125</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="133" operator="equal" id="{5E5F1DAE-81E8-4AF4-BC42-F21159DB14FA}">
@@ -21717,7 +22176,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D110:D112</xm:sqref>
+          <xm:sqref>D123:D125</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="123" operator="equal" id="{17AD4FB2-8914-4B08-89C5-B30DD40BAB8D}">
@@ -21811,7 +22270,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D114:D117</xm:sqref>
+          <xm:sqref>D128:D131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="122" operator="equal" id="{921E70E6-8A6D-4770-B247-0A1B774A0190}">
@@ -21827,7 +22286,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D114:D117</xm:sqref>
+          <xm:sqref>D128:D131</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="112" operator="equal" id="{7C4DC283-07FA-4594-83C1-60A61B7AF876}">
@@ -21921,7 +22380,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D120:D122</xm:sqref>
+          <xm:sqref>D135:D137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="111" operator="equal" id="{EEF6DB2F-640B-48D7-A7F9-A4B539DD11C2}">
@@ -21937,7 +22396,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D120:D122</xm:sqref>
+          <xm:sqref>D135:D137</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="101" operator="equal" id="{44F0B320-D102-4BEE-A4A0-242C9BCEA83E}">
@@ -22031,7 +22490,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D124:D132</xm:sqref>
+          <xm:sqref>D139:D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="100" operator="equal" id="{3716CF1A-5F94-4DF5-A0B9-B27DE3448B17}">
@@ -22047,7 +22506,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D124:D132</xm:sqref>
+          <xm:sqref>D139:D147</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="90" operator="equal" id="{B06D3187-1F43-4574-BC0F-5F84C6E62AF1}">
@@ -22141,7 +22600,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D134</xm:sqref>
+          <xm:sqref>D149</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="89" operator="equal" id="{21848C02-A50D-4EFA-8FB7-13EF1E27752C}">
@@ -22157,7 +22616,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D134</xm:sqref>
+          <xm:sqref>D149</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="79" operator="equal" id="{6D1400DF-69AE-4970-A3A3-ED35A426C3DD}">
@@ -22251,7 +22710,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D137:D139</xm:sqref>
+          <xm:sqref>D152:D154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="78" operator="equal" id="{804D658F-1493-4F51-BE3D-F1C5F2721EBE}">
@@ -22267,7 +22726,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D137:D139</xm:sqref>
+          <xm:sqref>D152:D154</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="68" operator="equal" id="{BD56FEDA-9CA8-448F-8583-FB75A3838F6D}">
@@ -22361,7 +22820,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D141:D142</xm:sqref>
+          <xm:sqref>D156:D157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="67" operator="equal" id="{00B34092-0216-43B9-AC7C-C022ADDB5CD8}">
@@ -22377,7 +22836,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D141:D142</xm:sqref>
+          <xm:sqref>D156:D157</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="46" operator="equal" id="{7B3A7B8E-28AD-473B-9D67-AC261B080899}">
@@ -22471,7 +22930,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D145:D151</xm:sqref>
+          <xm:sqref>D160:D166</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="45" operator="equal" id="{61B7E541-F84F-4F7D-B3AD-ADC3FDF518A4}">
@@ -22487,7 +22946,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D145:D151</xm:sqref>
+          <xm:sqref>D160:D166</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="35" operator="equal" id="{7F4C2F21-20BE-499C-BD9E-32963DFF808B}">
@@ -22581,7 +23040,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D154:D156</xm:sqref>
+          <xm:sqref>D169:D171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="34" operator="equal" id="{1CF1F433-5294-4901-B2B0-0C90D5A9B701}">
@@ -22597,7 +23056,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D154:D156</xm:sqref>
+          <xm:sqref>D169:D171</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="24" operator="equal" id="{C613DA1F-5E6D-47DA-883B-11AFAFC297AF}">
@@ -22691,7 +23150,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D158</xm:sqref>
+          <xm:sqref>D173</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="23" operator="equal" id="{5FF9C56D-6901-4E34-AC6D-84248C2AB716}">
@@ -22707,7 +23166,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D158</xm:sqref>
+          <xm:sqref>D173</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="13" operator="equal" id="{6A548DB7-8FF9-4108-B2CA-3D6A38F79E5B}">
@@ -22801,7 +23260,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D161:D165</xm:sqref>
+          <xm:sqref>D176:D180</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="12" operator="equal" id="{A2CCD0E2-2F69-4C89-A3A3-46875E966B1E}">
@@ -22817,7 +23276,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D161:D165</xm:sqref>
+          <xm:sqref>D176:D180</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="2" operator="equal" id="{14BF212E-9129-4BBE-8054-342E8A4819D3}">
@@ -22911,7 +23370,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D167:D169</xm:sqref>
+          <xm:sqref>D182:D184</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{DC92165D-27C7-411A-9CBA-5E881393E656}">
@@ -22927,7 +23386,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D167:D169</xm:sqref>
+          <xm:sqref>D182:D184</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -22937,7 +23396,7 @@
           <x14:formula1>
             <xm:f>Metrics!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D5:D6 D9:D13 D15:D16 D19:D20 D22:D24 D26 D167:D169 D50:D55 D57 D59:D63 D66:D67 D70:D75 D77:D85 D88:D91 D93 D95 D97:D100 D102 D104:D105 D107 D110:D112 D114:D117 D120:D122 D124:D132 D134 D137:D139 D141:D142 D145:D151 D154:D156 D158 D161:D165 D29:D32 D35:D37 D40:D42 D46:D47</xm:sqref>
+          <xm:sqref>D5:D6 D9:D13 D15:D16 D19:D20 D22:D24 D26 D182:D184 D135:D137 D139:D147 D149 D152:D154 D156:D157 D160:D166 D169:D171 D173 D176:D180 D29:D32 D35:D37 D40:D42 D46:D47 D50:D55 D58 D61:D65 D69:D70 D74:D79 D82:D90 D94:D97 D100 D103 D106:D109 D112 D115:D116 D119 D123:D125 D128:D131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -22993,8 +23452,8 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="E3" s="86">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B3)/[0]!ControlTotal</f>
-        <v>0.82456140350877194</v>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B3)/[0]!ControlTotal</f>
+        <v>0.38596491228070173</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23009,7 +23468,7 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="E4" s="75">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B4)/[0]!ControlTotal</f>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B4)/[0]!ControlTotal</f>
         <v>6.1403508771929821E-2</v>
       </c>
     </row>
@@ -23025,7 +23484,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E5" s="75">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B5)/[0]!ControlTotal</f>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B5)/[0]!ControlTotal</f>
         <v>2.6315789473684209E-2</v>
       </c>
     </row>
@@ -23041,8 +23500,8 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="E6" s="75">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B6)/[0]!ControlTotal</f>
-        <v>1.7543859649122806E-2</v>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B6)/[0]!ControlTotal</f>
+        <v>8.771929824561403E-2</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23057,8 +23516,8 @@
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E7" s="75">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B7)/[0]!ControlTotal</f>
-        <v>2.6315789473684209E-2</v>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B7)/[0]!ControlTotal</f>
+        <v>0.19298245614035087</v>
       </c>
     </row>
     <row r="8" spans="2:5" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23073,8 +23532,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="75">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B8)/[0]!ControlTotal</f>
-        <v>8.771929824561403E-3</v>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B8)/[0]!ControlTotal</f>
+        <v>7.0175438596491224E-2</v>
       </c>
     </row>
     <row r="9" spans="2:5" s="37" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23089,8 +23548,8 @@
         <v>0</v>
       </c>
       <c r="E9" s="75">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B9)/[0]!ControlTotal</f>
-        <v>1.7543859649122806E-2</v>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B9)/[0]!ControlTotal</f>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="10" spans="2:5" s="37" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -23105,8 +23564,8 @@
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E10" s="78">
-        <f>COUNTIF('Annex A controls'!$D$3:$D$169,$B10)/[0]!ControlTotal</f>
-        <v>1.7543859649122806E-2</v>
+        <f>COUNTIF('Annex A controls'!$D$3:$D$184,$B10)/[0]!ControlTotal</f>
+        <v>0.12280701754385964</v>
       </c>
     </row>
     <row r="11" spans="2:5" s="37" customFormat="1" x14ac:dyDescent="0.2">
@@ -23119,7 +23578,7 @@
       </c>
       <c r="E11" s="39">
         <f>SUM(E3:E10)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="12" spans="2:5" s="37" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/owasp and ptes (complicane and tools)/ISO27k1__and_controls.xlsx
+++ b/owasp and ptes (complicane and tools)/ISO27k1__and_controls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="573"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="573" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annex A controls" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="ControlTotal">'Annex A controls'!$D$201</definedName>
     <definedName name="Excel_BuiltIn_Print_Titles" localSheetId="0">'Annex A controls'!$A$2:$IP$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Annex A controls'!$B$1:$D$201</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Metrics!$B$2:$M$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Metrics!$B$2:$L$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Annex A controls'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -56,14 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="373">
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Meaning</t>
-  </si>
-  <si>
     <t>Initial</t>
   </si>
   <si>
@@ -79,52 +76,13 @@
     <t>Optimized</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Nonexistent</t>
   </si>
   <si>
     <t>Not applicable</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Complete lack of recognizable policy, procedure, control </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>etc.</t>
-    </r>
-  </si>
-  <si>
-    <t>Development has barely started and will require significant work to fulfill the requirements</t>
-  </si>
-  <si>
-    <t>Progressing nicely but not yet complete</t>
-  </si>
-  <si>
-    <t>Development is more or less complete although detail is lacking and/or it is not yet implemented, enforced and actively supported by top management</t>
-  </si>
-  <si>
-    <t>Has not even been checked yet</t>
-  </si>
-  <si>
     <t>Section</t>
-  </si>
-  <si>
-    <t>Development is complete, the process/control has been implemented and recently started operating</t>
-  </si>
-  <si>
-    <t>The requirement is fully satisfied, is operating fully as expected, is being actively monitored and improved, and there is substantial evidence to prove all that to the auditors</t>
-  </si>
-  <si>
-    <t>ALL requirements in the main body of ISO/IEC 27001 are mandatory IF your ISMS is to be certified.  Otherwise, managemnent can ignore them.</t>
   </si>
   <si>
     <t>? Unknown</t>
@@ -1223,7 +1181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1308,12 +1266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
@@ -1366,13 +1318,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1444,7 +1389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1595,19 +1540,6 @@
     <border>
       <left style="medium">
         <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="8"/>
       </left>
       <right style="hair">
         <color indexed="8"/>
@@ -1821,11 +1753,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1851,14 +1783,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1879,10 +1811,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1890,28 +1819,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1925,7 +1851,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1936,15 +1862,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1965,22 +1891,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1990,7 +1907,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2001,47 +1918,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2051,27 +1988,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2079,12 +1996,12 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -7034,7 +6951,7 @@
   </sheetPr>
   <dimension ref="A1:IQ211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -7045,48 +6962,48 @@
   <cols>
     <col min="1" max="1" width="1.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="65.28515625" style="39" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
     <col min="5" max="251" width="30.28515625" style="8" customWidth="1"/>
     <col min="252" max="16384" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
+      <c r="A1" s="30"/>
       <c r="B1" s="64" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C1" s="65"/>
       <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>32</v>
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="22"/>
+      <c r="B4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -7115,42 +7032,42 @@
       <c r="AD4" s="16"/>
     </row>
     <row r="5" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>9</v>
+      <c r="B5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>9</v>
+      <c r="B6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="57" t="s">
-        <v>345</v>
+      <c r="B7" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D7" s="67"/>
     </row>
     <row r="8" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>36</v>
+      <c r="B8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="16"/>
@@ -7181,67 +7098,67 @@
       <c r="AD8" s="16"/>
     </row>
     <row r="9" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="22"/>
+      <c r="B9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>4</v>
+      <c r="B10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>4</v>
+      <c r="B11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>9</v>
+      <c r="B12" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>9</v>
+      <c r="B13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>9</v>
+      <c r="B14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -7271,43 +7188,43 @@
       <c r="AD14" s="16"/>
     </row>
     <row r="15" spans="1:30" s="14" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="57" t="s">
-        <v>345</v>
+      <c r="B15" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D15" s="67"/>
     </row>
     <row r="16" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="22"/>
+      <c r="B16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>9</v>
+      <c r="D17" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>3</v>
+      <c r="B18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
@@ -7337,31 +7254,31 @@
       <c r="AD18" s="16"/>
     </row>
     <row r="19" spans="2:30" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="57" t="s">
-        <v>345</v>
+      <c r="B19" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D19" s="67"/>
     </row>
     <row r="20" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>46</v>
+      <c r="B20" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="22"/>
+      <c r="B21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="20"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -7390,44 +7307,44 @@
       <c r="AD21" s="16"/>
     </row>
     <row r="22" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>9</v>
+      <c r="B22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>9</v>
+      <c r="B23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
-        <v>345</v>
+      <c r="B24" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C24" s="66" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D24" s="67"/>
     </row>
     <row r="25" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="22"/>
+      <c r="B25" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="20"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -7456,36 +7373,36 @@
       <c r="AD25" s="16"/>
     </row>
     <row r="26" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>9</v>
+      <c r="B26" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>4</v>
+      <c r="B27" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:30" s="15" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>9</v>
+      <c r="B28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -7515,60 +7432,60 @@
       <c r="AD28" s="16"/>
     </row>
     <row r="29" spans="2:30" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="57" t="s">
-        <v>345</v>
+      <c r="B29" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D29" s="67"/>
     </row>
     <row r="30" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30" s="22"/>
+      <c r="B30" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="2:30" s="14" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>3</v>
+      <c r="B31" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:30" s="14" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
-        <v>345</v>
+      <c r="B32" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C32" s="66" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D32" s="67"/>
     </row>
     <row r="33" spans="2:30" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>199</v>
+      <c r="B33" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>189</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="22"/>
+      <c r="B34" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="20"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -7597,47 +7514,47 @@
       <c r="AD34" s="16"/>
     </row>
     <row r="35" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>8</v>
+      <c r="B35" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>8</v>
+      <c r="B36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>4</v>
+      <c r="B37" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="2:30" s="15" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>8</v>
+      <c r="B38" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>6</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -7667,54 +7584,54 @@
       <c r="AD38" s="16"/>
     </row>
     <row r="39" spans="2:30" s="14" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="57" t="s">
-        <v>345</v>
+      <c r="B39" s="52" t="s">
+        <v>335</v>
       </c>
       <c r="C39" s="66" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D39" s="67"/>
     </row>
     <row r="40" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" s="55"/>
+      <c r="B40" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="50"/>
     </row>
     <row r="41" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>8</v>
+      <c r="B41" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>3</v>
+      <c r="B42" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="2:30" s="15" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>2</v>
+      <c r="B43" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>1</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -7744,32 +7661,32 @@
       <c r="AD43" s="16"/>
     </row>
     <row r="44" spans="2:30" s="14" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="56" t="s">
-        <v>345</v>
+      <c r="B44" s="51" t="s">
+        <v>335</v>
       </c>
       <c r="C44" s="68" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D44" s="69"/>
     </row>
     <row r="45" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="55"/>
+      <c r="B45" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>2</v>
+      <c r="B46" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>1</v>
       </c>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -7799,74 +7716,74 @@
       <c r="AD46" s="16"/>
     </row>
     <row r="47" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>8</v>
+      <c r="B47" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:30" s="14" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>8</v>
+      <c r="B48" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:30" s="14" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="D49" s="63"/>
+      <c r="B49" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" s="60"/>
     </row>
     <row r="50" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D50" s="59"/>
+      <c r="B50" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" s="54"/>
     </row>
     <row r="51" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="22"/>
+      <c r="B51" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>9</v>
+      <c r="B52" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>4</v>
+      <c r="B53" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>3</v>
       </c>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -7896,22 +7813,22 @@
       <c r="AD53" s="16"/>
     </row>
     <row r="54" spans="2:30" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>371</v>
-      </c>
-      <c r="D54" s="63"/>
+      <c r="B54" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="60"/>
     </row>
     <row r="55" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="D55" s="55"/>
+      <c r="B55" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="50"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
@@ -7940,79 +7857,79 @@
       <c r="AD55" s="16"/>
     </row>
     <row r="56" spans="2:30" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>5</v>
+      <c r="B56" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>5</v>
+      <c r="B57" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>5</v>
+      <c r="B58" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>4</v>
+      <c r="B59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>4</v>
+      <c r="B60" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>4</v>
+      <c r="B61" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:30" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C62" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="D62" s="63"/>
+      <c r="B62" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="D62" s="60"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -8041,42 +7958,42 @@
       <c r="AD62" s="16"/>
     </row>
     <row r="63" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="55"/>
+      <c r="B63" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="50"/>
     </row>
     <row r="64" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>4</v>
+      <c r="B64" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="D65" s="72"/>
+      <c r="B65" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="D65" s="62"/>
     </row>
     <row r="66" spans="2:30" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D66" s="22"/>
+      <c r="B66" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="20"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
@@ -8105,77 +8022,77 @@
       <c r="AD66" s="16"/>
     </row>
     <row r="67" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>5</v>
+      <c r="B67" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>5</v>
+      <c r="B68" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>5</v>
+      <c r="B69" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>4</v>
+      <c r="B70" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="2:30" s="14" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>4</v>
+      <c r="B71" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="2:30" s="14" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="D72" s="63"/>
+      <c r="B72" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="D72" s="60"/>
     </row>
     <row r="73" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="D73" s="59"/>
+      <c r="B73" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="54"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
@@ -8204,116 +8121,116 @@
       <c r="AD73" s="16"/>
     </row>
     <row r="74" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C74" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D74" s="22"/>
+      <c r="B74" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="20"/>
     </row>
     <row r="75" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>9</v>
+      <c r="B75" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>3</v>
+      <c r="B76" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:30" s="14" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="D77" s="63"/>
+      <c r="B77" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C77" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" s="60"/>
     </row>
     <row r="78" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" s="59"/>
+      <c r="B78" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="D78" s="54"/>
     </row>
     <row r="79" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" s="22"/>
+      <c r="B79" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="2:30" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>9</v>
+      <c r="B80" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>9</v>
+      <c r="B81" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>3</v>
+      <c r="B82" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>3</v>
+      <c r="B83" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>9</v>
+      <c r="B84" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
@@ -8343,54 +8260,54 @@
       <c r="AD84" s="16"/>
     </row>
     <row r="85" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>244</v>
-      </c>
-      <c r="D85" s="52" t="s">
-        <v>9</v>
+      <c r="B85" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="2:30" s="14" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C86" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="D86" s="63"/>
+      <c r="B86" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D86" s="60"/>
     </row>
     <row r="87" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="D87" s="55"/>
+      <c r="B87" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="50"/>
     </row>
     <row r="88" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>9</v>
+      <c r="B88" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>4</v>
+      <c r="B89" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
@@ -8420,25 +8337,25 @@
       <c r="AD89" s="16"/>
     </row>
     <row r="90" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>9</v>
+      <c r="B90" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="2:30" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>4</v>
+      <c r="B91" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
@@ -8468,25 +8385,25 @@
       <c r="AD91" s="16"/>
     </row>
     <row r="92" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>3</v>
+      <c r="B92" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>3</v>
+      <c r="B93" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
@@ -8516,53 +8433,53 @@
       <c r="AD93" s="16"/>
     </row>
     <row r="94" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>4</v>
+      <c r="B94" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>4</v>
+      <c r="B95" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>9</v>
+      <c r="B96" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C97" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="D97" s="74"/>
+      <c r="B97" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C97" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="58"/>
     </row>
     <row r="98" spans="2:30" s="15" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C98" s="35" t="s">
-        <v>255</v>
+      <c r="B98" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>245</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="16"/>
@@ -8593,23 +8510,23 @@
       <c r="AD98" s="16"/>
     </row>
     <row r="99" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="D99" s="22"/>
+      <c r="B99" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D99" s="20"/>
     </row>
     <row r="100" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>4</v>
+      <c r="B100" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
@@ -8639,36 +8556,36 @@
       <c r="AD100" s="16"/>
     </row>
     <row r="101" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>4</v>
+      <c r="B101" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>9</v>
+      <c r="B102" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>9</v>
+      <c r="B103" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
@@ -8698,32 +8615,32 @@
       <c r="AD103" s="16"/>
     </row>
     <row r="104" spans="2:30" s="14" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C104" s="73" t="s">
-        <v>373</v>
-      </c>
-      <c r="D104" s="74"/>
+      <c r="B104" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C104" s="57" t="s">
+        <v>363</v>
+      </c>
+      <c r="D104" s="58"/>
     </row>
     <row r="105" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="D105" s="22"/>
+      <c r="B105" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D105" s="20"/>
     </row>
     <row r="106" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>6</v>
+      <c r="B106" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
@@ -8753,42 +8670,42 @@
       <c r="AD106" s="16"/>
     </row>
     <row r="107" spans="2:30" s="14" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="C107" s="73" t="s">
-        <v>355</v>
-      </c>
-      <c r="D107" s="74"/>
+      <c r="D107" s="58"/>
     </row>
     <row r="108" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="22"/>
+      <c r="B108" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D108" s="20"/>
     </row>
     <row r="109" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>3</v>
+      <c r="B109" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="2:30" s="15" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C110" s="73" t="s">
-        <v>374</v>
-      </c>
-      <c r="D110" s="74"/>
+      <c r="B110" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="58"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -8817,66 +8734,66 @@
       <c r="AD110" s="16"/>
     </row>
     <row r="111" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="D111" s="22"/>
+      <c r="B111" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D111" s="20"/>
     </row>
     <row r="112" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>4</v>
+      <c r="B112" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="2:30" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C113" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>4</v>
+      <c r="B113" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C114" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D114" s="23" t="s">
-        <v>4</v>
+      <c r="B114" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B115" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>375</v>
-      </c>
-      <c r="D115" s="23" t="s">
-        <v>3</v>
+      <c r="B115" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="2:30" s="15" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C116" s="73" t="s">
-        <v>356</v>
-      </c>
-      <c r="D116" s="74"/>
+      <c r="B116" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="57" t="s">
+        <v>346</v>
+      </c>
+      <c r="D116" s="58"/>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -8905,42 +8822,42 @@
       <c r="AD116" s="16"/>
     </row>
     <row r="117" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C117" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" s="22"/>
+      <c r="B117" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="20"/>
     </row>
     <row r="118" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" s="23" t="s">
-        <v>4</v>
+      <c r="B118" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="2:30" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C119" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="D119" s="74"/>
+      <c r="B119" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="58"/>
     </row>
     <row r="120" spans="2:30" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="36" t="s">
-        <v>271</v>
-      </c>
-      <c r="D120" s="22"/>
+      <c r="B120" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="20"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
@@ -8969,103 +8886,103 @@
       <c r="AD120" s="16"/>
     </row>
     <row r="121" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="D121" s="23" t="s">
-        <v>6</v>
+      <c r="B121" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D122" s="23" t="s">
+      <c r="B122" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C123" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="D123" s="58"/>
+    </row>
+    <row r="124" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D124" s="20"/>
+    </row>
+    <row r="125" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:30" s="14" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C126" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D126" s="58"/>
+    </row>
+    <row r="127" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="20"/>
+    </row>
+    <row r="129" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C129" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="2:30" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C123" s="73" t="s">
-        <v>358</v>
-      </c>
-      <c r="D123" s="74"/>
-    </row>
-    <row r="124" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="D124" s="22"/>
-    </row>
-    <row r="125" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C125" s="37" t="s">
-        <v>275</v>
-      </c>
-      <c r="D125" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="2:30" s="14" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C126" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="D126" s="74"/>
-    </row>
-    <row r="127" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C127" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="D127" s="10"/>
-    </row>
-    <row r="128" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="D128" s="22"/>
-    </row>
-    <row r="129" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="D129" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="130" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D130" s="23" t="s">
-        <v>6</v>
+      <c r="B130" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
@@ -9095,33 +9012,33 @@
       <c r="AD130" s="16"/>
     </row>
     <row r="131" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" s="37" t="s">
-        <v>280</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>3</v>
+      <c r="B131" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="2:30" s="11" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B132" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C132" s="73" t="s">
-        <v>376</v>
-      </c>
-      <c r="D132" s="74"/>
+      <c r="B132" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C132" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="D132" s="58"/>
     </row>
     <row r="133" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>281</v>
-      </c>
-      <c r="D133" s="22"/>
+      <c r="B133" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="D133" s="20"/>
       <c r="E133" s="16"/>
       <c r="F133" s="16"/>
       <c r="G133" s="16"/>
@@ -9150,47 +9067,47 @@
       <c r="AD133" s="16"/>
     </row>
     <row r="134" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C134" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134" s="23" t="s">
-        <v>9</v>
+      <c r="B134" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C134" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="135" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="D135" s="23" t="s">
-        <v>9</v>
+      <c r="B135" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C135" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="D136" s="23" t="s">
-        <v>4</v>
+      <c r="B136" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="35" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D137" s="23" t="s">
-        <v>4</v>
+      <c r="B137" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="E137" s="16"/>
       <c r="F137" s="16"/>
@@ -9220,41 +9137,41 @@
       <c r="AD137" s="16"/>
     </row>
     <row r="138" spans="2:30" s="14" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C138" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="D138" s="74"/>
+      <c r="B138" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C138" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="D138" s="58"/>
     </row>
     <row r="139" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C139" s="35" t="s">
-        <v>286</v>
+      <c r="B139" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="33" t="s">
+        <v>276</v>
       </c>
       <c r="D139" s="10"/>
     </row>
     <row r="140" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" s="22"/>
+      <c r="B140" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D140" s="20"/>
     </row>
     <row r="141" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="C141" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>8</v>
+      <c r="B141" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>6</v>
       </c>
       <c r="E141" s="16"/>
       <c r="F141" s="16"/>
@@ -9284,98 +9201,98 @@
       <c r="AD141" s="16"/>
     </row>
     <row r="142" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C142" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="D142" s="23" t="s">
+      <c r="B142" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C142" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D143" s="21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>290</v>
-      </c>
-      <c r="D143" s="23" t="s">
+    <row r="144" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C144" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="D144" s="58"/>
+    </row>
+    <row r="145" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D145" s="20"/>
+    </row>
+    <row r="146" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D147" s="21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C144" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="D144" s="74"/>
-    </row>
-    <row r="145" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D145" s="22"/>
-    </row>
-    <row r="146" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C146" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="148" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>5</v>
+      <c r="B148" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="2:30" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>5</v>
+      <c r="B149" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="D150" s="23" t="s">
-        <v>9</v>
+      <c r="B150" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="16"/>
@@ -9405,47 +9322,47 @@
       <c r="AD150" s="16"/>
     </row>
     <row r="151" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C151" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="D151" s="23" t="s">
-        <v>9</v>
+      <c r="B151" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="152" spans="2:30" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="D152" s="23" t="s">
-        <v>9</v>
+      <c r="B152" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D153" s="23" t="s">
-        <v>4</v>
+      <c r="B153" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C153" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="C154" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>9</v>
+      <c r="B154" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C154" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E154" s="16"/>
       <c r="F154" s="16"/>
@@ -9475,32 +9392,32 @@
       <c r="AD154" s="16"/>
     </row>
     <row r="155" spans="2:30" s="14" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" s="73" t="s">
-        <v>378</v>
-      </c>
-      <c r="D155" s="74"/>
+      <c r="B155" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="D155" s="58"/>
     </row>
     <row r="156" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="D156" s="22"/>
+      <c r="B156" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D156" s="20"/>
     </row>
     <row r="157" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D157" s="23" t="s">
-        <v>3</v>
+      <c r="B157" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>2</v>
       </c>
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
@@ -9530,63 +9447,63 @@
       <c r="AD157" s="16"/>
     </row>
     <row r="158" spans="2:30" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C158" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="D158" s="74"/>
+      <c r="B158" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C158" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="D158" s="58"/>
     </row>
     <row r="159" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>303</v>
+      <c r="B159" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>293</v>
       </c>
       <c r="D159" s="10"/>
     </row>
     <row r="160" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C160" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="D160" s="22"/>
+      <c r="B160" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D160" s="20"/>
     </row>
     <row r="161" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C161" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>9</v>
+      <c r="B161" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C162" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="D162" s="23" t="s">
-        <v>9</v>
+      <c r="B162" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C163" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>9</v>
+      <c r="B163" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C163" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>7</v>
       </c>
       <c r="E163" s="16"/>
       <c r="F163" s="16"/>
@@ -9616,477 +9533,452 @@
       <c r="AD163" s="16"/>
     </row>
     <row r="164" spans="1:30" s="14" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C164" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="D164" s="74"/>
+      <c r="B164" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C164" s="57" t="s">
+        <v>369</v>
+      </c>
+      <c r="D164" s="58"/>
     </row>
     <row r="165" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C165" s="36" t="s">
-        <v>308</v>
-      </c>
-      <c r="D165" s="22"/>
+      <c r="B165" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="D165" s="20"/>
     </row>
     <row r="166" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C166" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>9</v>
+      <c r="B166" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:30" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C167" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>9</v>
+      <c r="B167" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:30" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
-      <c r="B168" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C168" s="73" t="s">
-        <v>362</v>
-      </c>
-      <c r="D168" s="74"/>
+      <c r="B168" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="D168" s="58"/>
     </row>
     <row r="169" spans="1:30" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
-      <c r="B169" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="C169" s="35" t="s">
-        <v>311</v>
+      <c r="B169" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C169" s="33" t="s">
+        <v>301</v>
       </c>
       <c r="D169" s="10"/>
     </row>
     <row r="170" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
-      <c r="B170" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C170" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="D170" s="22"/>
+      <c r="B170" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D170" s="20"/>
     </row>
     <row r="171" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
-      <c r="B171" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C171" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D171" s="23" t="s">
-        <v>9</v>
+      <c r="B171" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:30" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
-      <c r="B172" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>9</v>
+      <c r="B172" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
-      <c r="B173" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="C173" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="D173" s="23" t="s">
-        <v>9</v>
+      <c r="B173" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
-      <c r="B174" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D174" s="23" t="s">
-        <v>9</v>
+      <c r="B174" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C174" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
-      <c r="B175" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="C175" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="D175" s="23" t="s">
-        <v>9</v>
+      <c r="B175" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
-      <c r="B176" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="D176" s="23" t="s">
-        <v>9</v>
+      <c r="B176" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="6" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
-      <c r="B177" s="28" t="s">
+      <c r="B177" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C178" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="D178" s="58"/>
+    </row>
+    <row r="179" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B179" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="D179" s="10"/>
+    </row>
+    <row r="180" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="D180" s="20"/>
+    </row>
+    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B181" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="D181" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B182" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="D182" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C183" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C184" s="57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D184" s="58"/>
+    </row>
+    <row r="185" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C185" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D185" s="20"/>
+    </row>
+    <row r="186" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D186" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="D187" s="58"/>
+    </row>
+    <row r="188" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B188" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C188" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D188" s="10"/>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B189" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C189" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D189" s="20"/>
+    </row>
+    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B190" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C177" s="37" t="s">
+      <c r="C190" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D190" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B191" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C191" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="D177" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C178" s="73" t="s">
-        <v>363</v>
-      </c>
-      <c r="D178" s="74"/>
-    </row>
-    <row r="179" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B179" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="C179" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="D179" s="10"/>
-    </row>
-    <row r="180" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="27" t="s">
+      <c r="D191" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="36" t="s">
+      <c r="C192" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="D192" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B193" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C193" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="D180" s="22"/>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B181" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C181" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="D181" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B182" s="28" t="s">
+      <c r="D193" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C182" s="37" t="s">
+      <c r="C194" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="D182" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="28" t="s">
+      <c r="D194" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C195" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="D195" s="58"/>
+    </row>
+    <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B196" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="C183" s="37" t="s">
+      <c r="C196" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="D183" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C184" s="73" t="s">
-        <v>382</v>
-      </c>
-      <c r="D184" s="74"/>
-    </row>
-    <row r="185" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="27" t="s">
+      <c r="D196" s="20"/>
+    </row>
+    <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B197" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="36" t="s">
+      <c r="C197" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D185" s="22"/>
-    </row>
-    <row r="186" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="28" t="s">
+      <c r="D197" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B198" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="37" t="s">
+      <c r="C198" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="D186" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C187" s="73" t="s">
-        <v>380</v>
-      </c>
-      <c r="D187" s="74"/>
-    </row>
-    <row r="188" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="26" t="s">
+      <c r="D198" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C188" s="35" t="s">
+      <c r="C199" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="D188" s="10"/>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C189" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="D189" s="22"/>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B190" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C190" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="D190" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B191" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="D191" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="D192" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B193" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="D193" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C194" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="D194" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C195" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="D195" s="74"/>
-    </row>
-    <row r="196" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B196" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C196" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D196" s="22"/>
-    </row>
-    <row r="197" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B197" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="D197" s="23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B198" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C198" s="37" t="s">
+      <c r="D199" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="D198" s="23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C199" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D199" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="C200" s="73" t="s">
-        <v>365</v>
-      </c>
-      <c r="D200" s="74"/>
+      <c r="C200" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D200" s="58"/>
     </row>
     <row r="201" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B201" s="30"/>
-      <c r="C201" s="39"/>
-      <c r="D201" s="18">
+      <c r="B201" s="28"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="17">
         <f>COUNTA(D3:D199)</f>
         <v>114</v>
       </c>
     </row>
     <row r="202" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
-      <c r="C202" s="40"/>
+      <c r="C202" s="38"/>
       <c r="D202" s="7"/>
     </row>
     <row r="203" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B203" s="2"/>
-      <c r="C203" s="40"/>
+      <c r="C203" s="38"/>
       <c r="D203" s="7"/>
     </row>
     <row r="204" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
-      <c r="C204" s="40"/>
+      <c r="C204" s="38"/>
       <c r="D204" s="7"/>
     </row>
     <row r="205" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
-      <c r="C205" s="40"/>
+      <c r="C205" s="38"/>
       <c r="D205" s="7"/>
     </row>
     <row r="206" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
-      <c r="C206" s="40"/>
+      <c r="C206" s="38"/>
       <c r="D206" s="7"/>
     </row>
     <row r="207" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B207" s="2"/>
-      <c r="C207" s="40"/>
+      <c r="C207" s="38"/>
       <c r="D207" s="7"/>
     </row>
     <row r="208" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B208" s="2"/>
-      <c r="C208" s="40"/>
+      <c r="C208" s="38"/>
       <c r="D208" s="7"/>
     </row>
     <row r="209" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
-      <c r="C209" s="40"/>
+      <c r="C209" s="38"/>
       <c r="D209" s="7"/>
     </row>
     <row r="210" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
-      <c r="C210" s="40"/>
+      <c r="C210" s="38"/>
       <c r="D210" s="7"/>
     </row>
     <row r="211" spans="2:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
-      <c r="C211" s="40"/>
+      <c r="C211" s="38"/>
       <c r="D211" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C86:D86"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C39:D39"/>
@@ -10098,6 +9990,31 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C184:D184"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D6">
     <cfRule type="containsText" dxfId="416" priority="405" operator="containsText" text="Initial">
@@ -14558,412 +14475,380 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C319"/>
+  <dimension ref="B1:B319"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="13" customWidth="1"/>
     <col min="2" max="2" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="13"/>
+    <col min="3" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" s="19" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" s="18" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+    </row>
+    <row r="3" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="47" t="s">
+    <row r="6" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="47" t="s">
+    </row>
+    <row r="7" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="47" t="s">
+    </row>
+    <row r="8" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+    </row>
+    <row r="9" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" s="20" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="21" t="s">
+    </row>
+    <row r="10" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:3" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="B14" s="24"/>
-    </row>
-    <row r="15" spans="2:3" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="B15" s="24"/>
-    </row>
-    <row r="16" spans="2:3" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="B16" s="24"/>
-    </row>
-    <row r="17" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:2" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="B14" s="22"/>
+    </row>
+    <row r="15" spans="2:2" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="B15" s="22"/>
+    </row>
+    <row r="16" spans="2:2" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="B16" s="22"/>
+    </row>
+    <row r="17" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B9">
     <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
@@ -15038,7 +14923,7 @@
       <formula>_xludf.STYLE(VLOOKUP(B10,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Control Scope" sqref="B3">
       <formula1>0</formula1>
       <formula2>0</formula2>

--- a/owasp and ptes (complicane and tools)/ISO27k1__and_controls.xlsx
+++ b/owasp and ptes (complicane and tools)/ISO27k1__and_controls.xlsx
@@ -70,12 +70,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="371">
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Limited</t>
   </si>
   <si>
     <t>Not applicable</t>
@@ -1955,11 +1952,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1985,26 +2002,6 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="_state_yes" xfId="1"/>
@@ -2021,16 +2018,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
@@ -2130,6 +2117,16 @@
         <patternFill patternType="solid">
           <fgColor indexed="26"/>
           <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5403,10 +5400,10 @@
   <dimension ref="A1:IQ211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D199" sqref="D199"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5421,42 +5418,42 @@
   <sheetData>
     <row r="1" spans="1:30" s="1" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
-      <c r="B1" s="58" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:30" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -5488,43 +5485,43 @@
     </row>
     <row r="5" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:30" s="11" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="66"/>
     </row>
     <row r="8" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -5556,71 +5553,71 @@
     </row>
     <row r="9" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16"/>
@@ -5651,45 +5648,45 @@
     </row>
     <row r="15" spans="1:30" s="14" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="66"/>
     </row>
     <row r="16" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E17" s="21"/>
     </row>
     <row r="18" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -5719,29 +5716,29 @@
     </row>
     <row r="19" spans="2:30" s="14" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="D19" s="66"/>
     </row>
     <row r="20" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>31</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -5773,43 +5770,43 @@
     </row>
     <row r="22" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D24" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="66"/>
     </row>
     <row r="25" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
@@ -5841,37 +5838,37 @@
     </row>
     <row r="26" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:30" s="15" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="16"/>
@@ -5902,62 +5899,60 @@
     </row>
     <row r="29" spans="2:30" s="14" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="D29" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="D29" s="66"/>
     </row>
     <row r="30" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
     </row>
     <row r="31" spans="2:30" s="14" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>1</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="2:30" s="14" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="D32" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="66"/>
     </row>
     <row r="33" spans="2:30" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
@@ -5989,49 +5984,49 @@
     </row>
     <row r="35" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="2:30" s="15" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E38" s="46"/>
       <c r="F38" s="16"/>
@@ -6062,56 +6057,56 @@
     </row>
     <row r="39" spans="2:30" s="14" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="61"/>
+        <v>329</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="66"/>
     </row>
     <row r="40" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="49"/>
     </row>
     <row r="41" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="2:30" s="15" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="16"/>
@@ -6142,32 +6137,32 @@
     </row>
     <row r="44" spans="2:30" s="14" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="D44" s="63"/>
+        <v>329</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="68"/>
     </row>
     <row r="45" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
     </row>
     <row r="46" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="16"/>
@@ -6198,78 +6193,78 @@
     </row>
     <row r="47" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="2:30" s="14" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E48" s="46"/>
     </row>
     <row r="49" spans="2:30" s="14" customFormat="1" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="D49" s="57"/>
+        <v>329</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D49" s="59"/>
     </row>
     <row r="50" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D50" s="53"/>
       <c r="E50" s="53"/>
     </row>
     <row r="51" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
     <row r="52" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E52" s="21"/>
     </row>
     <row r="53" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E53" s="46"/>
       <c r="F53" s="16"/>
@@ -6300,19 +6295,19 @@
     </row>
     <row r="54" spans="2:30" s="14" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="51" t="s">
-        <v>330</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="D54" s="57"/>
+        <v>329</v>
+      </c>
+      <c r="C54" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="D54" s="59"/>
     </row>
     <row r="55" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -6344,84 +6339,84 @@
     </row>
     <row r="56" spans="2:30" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E56" s="21"/>
     </row>
     <row r="57" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E57" s="21"/>
     </row>
     <row r="58" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E58" s="21"/>
     </row>
     <row r="59" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E59" s="21"/>
     </row>
     <row r="60" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E60" s="21"/>
     </row>
     <row r="61" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E61" s="46"/>
     </row>
     <row r="62" spans="2:30" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="64" t="s">
-        <v>336</v>
-      </c>
-      <c r="D62" s="57"/>
+        <v>329</v>
+      </c>
+      <c r="C62" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="59"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
@@ -6451,41 +6446,41 @@
     </row>
     <row r="63" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
     </row>
     <row r="64" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E64" s="21"/>
     </row>
     <row r="65" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="D65" s="66"/>
+        <v>329</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="61"/>
     </row>
     <row r="66" spans="2:30" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -6517,79 +6512,79 @@
     </row>
     <row r="67" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E67" s="21"/>
     </row>
     <row r="68" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E68" s="21"/>
     </row>
     <row r="69" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E69" s="21"/>
     </row>
     <row r="70" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E70" s="21"/>
     </row>
     <row r="71" spans="2:30" s="14" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E71" s="46"/>
     </row>
     <row r="72" spans="2:30" s="14" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C72" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" s="57"/>
+        <v>329</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" s="59"/>
     </row>
     <row r="73" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="53"/>
       <c r="E73" s="53"/>
@@ -6621,124 +6616,124 @@
     </row>
     <row r="74" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
     </row>
     <row r="75" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="46"/>
       <c r="E76" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="2:30" s="14" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C77" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="D77" s="57"/>
+        <v>329</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="D77" s="59"/>
     </row>
     <row r="78" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="53"/>
       <c r="E78" s="53"/>
     </row>
     <row r="79" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
     </row>
     <row r="80" spans="2:30" s="14" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E80" s="21"/>
     </row>
     <row r="81" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E81" s="21"/>
     </row>
     <row r="82" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D83" s="21"/>
       <c r="E83" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E84" s="21"/>
       <c r="F84" s="16"/>
@@ -6769,56 +6764,56 @@
     </row>
     <row r="85" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D85" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E85" s="46"/>
     </row>
     <row r="86" spans="2:30" s="14" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C86" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="D86" s="57"/>
+        <v>329</v>
+      </c>
+      <c r="C86" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="D86" s="59"/>
     </row>
     <row r="87" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D87" s="49"/>
       <c r="E87" s="49"/>
     </row>
     <row r="88" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E88" s="21"/>
     </row>
     <row r="89" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E89" s="21"/>
       <c r="F89" s="16"/>
@@ -6849,25 +6844,25 @@
     </row>
     <row r="90" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E90" s="21"/>
     </row>
     <row r="91" spans="2:30" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E91" s="21"/>
       <c r="F91" s="16"/>
@@ -6898,26 +6893,26 @@
     </row>
     <row r="92" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D92" s="21"/>
       <c r="E92" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D93" s="21"/>
       <c r="E93" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F93" s="16"/>
       <c r="G93" s="16"/>
@@ -6947,55 +6942,55 @@
     </row>
     <row r="94" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E94" s="21"/>
     </row>
     <row r="95" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E95" s="21"/>
     </row>
     <row r="96" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E96" s="21"/>
     </row>
     <row r="97" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C97" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="D97" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C97" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D97" s="57"/>
     </row>
     <row r="98" spans="2:30" s="15" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
@@ -7027,23 +7022,23 @@
     </row>
     <row r="99" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="20"/>
     </row>
     <row r="100" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E100" s="21"/>
       <c r="F100" s="16"/>
@@ -7074,37 +7069,37 @@
     </row>
     <row r="101" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E101" s="21"/>
     </row>
     <row r="102" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E102" s="21"/>
     </row>
     <row r="103" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E103" s="21"/>
       <c r="F103" s="16"/>
@@ -7135,32 +7130,32 @@
     </row>
     <row r="104" spans="2:30" s="14" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C104" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="D104" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="D104" s="57"/>
     </row>
     <row r="105" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
     </row>
     <row r="106" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E106" s="21"/>
       <c r="F106" s="16"/>
@@ -7191,43 +7186,43 @@
     </row>
     <row r="107" spans="2:30" s="14" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C107" s="67" t="s">
-        <v>340</v>
-      </c>
-      <c r="D107" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C107" s="56" t="s">
+        <v>339</v>
+      </c>
+      <c r="D107" s="57"/>
     </row>
     <row r="108" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="20"/>
     </row>
     <row r="109" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D109" s="21"/>
       <c r="E109" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="2:30" s="15" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C110" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="D110" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="D110" s="57"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
@@ -7257,70 +7252,70 @@
     </row>
     <row r="111" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="20"/>
     </row>
     <row r="112" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C112" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E112" s="21"/>
     </row>
     <row r="113" spans="2:30" s="14" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E113" s="21"/>
     </row>
     <row r="114" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E114" s="21"/>
     </row>
     <row r="115" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B115" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D115" s="21"/>
       <c r="E115" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="116" spans="2:30" s="15" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C116" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="D116" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="D116" s="57"/>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
@@ -7350,41 +7345,41 @@
     </row>
     <row r="117" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="20"/>
     </row>
     <row r="118" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E118" s="21"/>
     </row>
     <row r="119" spans="2:30" s="14" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C119" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="D119" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C119" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D119" s="57"/>
     </row>
     <row r="120" spans="2:30" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="20"/>
@@ -7416,109 +7411,109 @@
     </row>
     <row r="121" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E121" s="21"/>
     </row>
     <row r="122" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E122" s="21"/>
     </row>
     <row r="123" spans="2:30" s="14" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C123" s="67" t="s">
-        <v>343</v>
-      </c>
-      <c r="D123" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C123" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D123" s="57"/>
     </row>
     <row r="124" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="20"/>
     </row>
     <row r="125" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E125" s="21"/>
     </row>
     <row r="126" spans="2:30" s="14" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C126" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="D126" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="D126" s="57"/>
     </row>
     <row r="127" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
     </row>
     <row r="128" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D128" s="20"/>
       <c r="E128" s="20"/>
     </row>
     <row r="129" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C129" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E129" s="21"/>
     </row>
     <row r="130" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C130" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="16"/>
@@ -7549,31 +7544,31 @@
     </row>
     <row r="131" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D131" s="21"/>
       <c r="E131" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="2:30" s="11" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B132" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C132" s="67" t="s">
-        <v>361</v>
-      </c>
-      <c r="D132" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C132" s="56" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="57"/>
     </row>
     <row r="133" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
@@ -7605,49 +7600,49 @@
     </row>
     <row r="134" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E134" s="21"/>
     </row>
     <row r="135" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E135" s="21"/>
     </row>
     <row r="136" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C136" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E136" s="21"/>
     </row>
     <row r="137" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="16"/>
@@ -7678,42 +7673,42 @@
     </row>
     <row r="138" spans="2:30" s="14" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C138" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="D138" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C138" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="D138" s="57"/>
     </row>
     <row r="139" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D140" s="20"/>
       <c r="E140" s="20"/>
     </row>
     <row r="141" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="16"/>
@@ -7744,104 +7739,104 @@
     </row>
     <row r="142" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E142" s="21"/>
     </row>
     <row r="143" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E143" s="21"/>
     </row>
     <row r="144" spans="2:30" s="14" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C144" s="67" t="s">
-        <v>362</v>
-      </c>
-      <c r="D144" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C144" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D144" s="57"/>
     </row>
     <row r="145" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
     </row>
     <row r="146" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E146" s="21"/>
     </row>
     <row r="147" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E147" s="21"/>
     </row>
     <row r="148" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E148" s="21"/>
     </row>
     <row r="149" spans="2:30" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E149" s="21"/>
     </row>
     <row r="150" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E150" s="21"/>
       <c r="F150" s="16"/>
@@ -7872,49 +7867,49 @@
     </row>
     <row r="151" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E151" s="21"/>
     </row>
     <row r="152" spans="2:30" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E152" s="21"/>
     </row>
     <row r="153" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E153" s="21"/>
     </row>
     <row r="154" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E154" s="21"/>
       <c r="F154" s="16"/>
@@ -7945,33 +7940,33 @@
     </row>
     <row r="155" spans="2:30" s="14" customFormat="1" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B155" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C155" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="D155" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C155" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="D155" s="57"/>
     </row>
     <row r="156" spans="2:30" s="11" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D156" s="20"/>
       <c r="E156" s="20"/>
     </row>
     <row r="157" spans="2:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D157" s="21"/>
       <c r="E157" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
@@ -8001,66 +7996,66 @@
     </row>
     <row r="158" spans="2:30" s="14" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B158" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C158" s="67" t="s">
-        <v>346</v>
-      </c>
-      <c r="D158" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C158" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="D158" s="57"/>
     </row>
     <row r="159" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
     </row>
     <row r="160" spans="2:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D160" s="20"/>
       <c r="E160" s="20"/>
     </row>
     <row r="161" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E162" s="21"/>
     </row>
     <row r="163" spans="1:30" s="15" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E163" s="21"/>
       <c r="F163" s="16"/>
@@ -8091,65 +8086,65 @@
     </row>
     <row r="164" spans="1:30" s="14" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C164" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="D164" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C164" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="D164" s="57"/>
     </row>
     <row r="165" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D165" s="20"/>
       <c r="E165" s="20"/>
     </row>
     <row r="166" spans="1:30" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:30" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E167" s="21"/>
     </row>
     <row r="168" spans="1:30" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C168" s="67" t="s">
-        <v>347</v>
-      </c>
-      <c r="D168" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C168" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="D168" s="57"/>
     </row>
     <row r="169" spans="1:30" s="6" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
@@ -8157,10 +8152,10 @@
     <row r="170" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
@@ -8168,350 +8163,350 @@
     <row r="171" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E171" s="21"/>
     </row>
     <row r="172" spans="1:30" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E172" s="21"/>
     </row>
     <row r="173" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E173" s="21"/>
     </row>
     <row r="174" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E174" s="21"/>
     </row>
     <row r="175" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E175" s="21"/>
     </row>
     <row r="176" spans="1:30" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E176" s="21"/>
     </row>
     <row r="177" spans="1:5" s="6" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E177" s="21"/>
     </row>
     <row r="178" spans="1:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B178" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C178" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="D178" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C178" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="D178" s="57"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B179" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
     </row>
     <row r="180" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D180" s="20"/>
       <c r="E180" s="20"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B181" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C181" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E181" s="21"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B182" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C182" s="35" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E182" s="21"/>
     </row>
     <row r="183" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B183" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C183" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E183" s="21"/>
     </row>
     <row r="184" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B184" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C184" s="67" t="s">
-        <v>367</v>
-      </c>
-      <c r="D184" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C184" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="D184" s="57"/>
       <c r="E184" s="8"/>
     </row>
     <row r="185" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C185" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D185" s="20"/>
       <c r="E185" s="20"/>
     </row>
     <row r="186" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B186" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C186" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E186" s="21"/>
     </row>
     <row r="187" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C187" s="67" t="s">
-        <v>365</v>
-      </c>
-      <c r="D187" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C187" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="D187" s="57"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B189" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D189" s="20"/>
       <c r="E189" s="20"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B190" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C190" s="35" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E190" s="21"/>
     </row>
     <row r="191" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B191" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E191" s="21"/>
     </row>
     <row r="192" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C192" s="35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E192" s="21"/>
     </row>
     <row r="193" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B193" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C193" s="35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E193" s="21"/>
     </row>
     <row r="194" spans="2:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C194" s="35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D194" s="21"/>
       <c r="E194" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="2:5" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C195" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="D195" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C195" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="D195" s="57"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B196" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D196" s="20"/>
       <c r="E196" s="20"/>
     </row>
     <row r="197" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B197" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C197" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D197" s="21"/>
       <c r="E197" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="198" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B198" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C198" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E198" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="2:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C199" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D199" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="2:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B200" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="C200" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="D200" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="C200" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="D200" s="57"/>
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -8523,7 +8518,7 @@
       </c>
       <c r="E201" s="17">
         <f>COUNTA(E3:E199)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
@@ -8589,31 +8584,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C86:D86"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C39:D39"/>
@@ -8625,6 +8595,31 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C184:D184"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D6">
     <cfRule type="containsText" dxfId="233" priority="801" operator="containsText" text="Initial">
@@ -9910,7 +9905,7 @@
   <dimension ref="B1:B315"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9928,22 +9923,22 @@
     </row>
     <row r="3" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="2:2" s="19" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="2:2" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -10263,36 +10258,36 @@
     <row r="315" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="expression" dxfId="10" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>_xludf.STYLE(VLOOKUP(B3,#REF!,2,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6">
-    <cfRule type="cellIs" dxfId="9" priority="1312" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1312" operator="equal">
       <formula>$B$6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="1313" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1313" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="1314" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1314" operator="equal">
       <formula>$B$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1315" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1315" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="1316" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1316" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="1317" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1317" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1318" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1318" operator="equal">
       <formula>$B$3</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1319" operator="containsText" text="Initial">
+    <cfRule type="containsText" dxfId="1" priority="1319" operator="containsText" text="Initial">
       <formula>NOT(ISERROR(SEARCH("Initial",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1320" operator="containsText" text="Nonexistent">
+    <cfRule type="containsText" dxfId="0" priority="1320" operator="containsText" text="Nonexistent">
       <formula>NOT(ISERROR(SEARCH("Nonexistent",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
